--- a/1.xlsx
+++ b/1.xlsx
@@ -1,31 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22026"/>
-  <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{FDFF6A5C-DEE8-4E85-876B-9B23299AD194}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22026"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\projects\hr_calculations\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6EDD93E1-DECB-400B-A147-BC930B427463}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="21">
   <si>
     <t xml:space="preserve">ЗВІТ
 про зайнятість і працевлаштування громадян, 
@@ -34,6 +29,9 @@
 </t>
   </si>
   <si>
+    <t>к-ть</t>
+  </si>
+  <si>
     <t>1) Працівники, яким до настання прав на пенсію за віком відповідно до статті 26 Закону України «Про загальнообов’язкове державне пенсійне страхування» залишилося 10 і менше років:</t>
   </si>
   <si>
@@ -43,143 +41,59 @@
     <t>3) Один з батьків або особа, яка їх замінює і має на утриманні дитину (дітей) віком до шести років:</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-        <charset val="204"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-        <charset val="204"/>
-      </rPr>
-      <t>Деркач С.П. (28.05.1962);</t>
-    </r>
+    <t xml:space="preserve"> Деркач С.П. (28.05.1962);</t>
+  </si>
+  <si>
+    <t>Руденко В.В. – посвідчення МВ № 052501 (учасник бойових дій); до 19.01.21</t>
+  </si>
+  <si>
+    <t>Гамбаров Д.І. – Гамбаров Р.Д. (07.06.2017);</t>
+  </si>
+  <si>
+    <t>Губанов М.Г. (12.01.1961); до 12.01.21</t>
+  </si>
+  <si>
+    <t>Чамата О.В. – Чамата М.О. (19.05.2018);</t>
   </si>
   <si>
     <t>Петрук Ю.І. (30.03.1961);</t>
   </si>
   <si>
+    <t>Шевчук А.В. – Шевчук Е.А. (17.08.2018);</t>
+  </si>
+  <si>
     <t>Лавренюк І.І. (03.12.1964);</t>
   </si>
   <si>
+    <t>Маслова Ю.Ю. – Манченко Є.А. (19.12.2015);</t>
+  </si>
+  <si>
     <t>Серьожкіна В.П.(23.12.1969);</t>
   </si>
   <si>
+    <t xml:space="preserve">Приходько Ю.А. – Приходько М.Ю. (10.11.2020); до 06.01.21 </t>
+  </si>
+  <si>
     <t>Притула І.Г. (11.09.1968);</t>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">Тищенко В.М. (17.11.1970). </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>з 25.01.21</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Губанов М.Г. (12.01.1961); </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>до 12.01.21</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>Руденко В.В. – посвідчення МВ № 052501 (учасник бойових дій);</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> до 19.01.21</t>
-    </r>
-  </si>
-  <si>
-    <t>Гамбаров Д.І. – Гамбаров Р.Д. (07.06.2017);</t>
-  </si>
-  <si>
-    <t>Чамата О.В. – Чамата М.О. (19.05.2018);</t>
-  </si>
-  <si>
-    <t>Шевчук А.В. – Шевчук Е.А. (17.08.2018);</t>
-  </si>
-  <si>
-    <t>Маслова Ю.Ю. – Манченко Є.А. (19.12.2015);</t>
-  </si>
-  <si>
     <t>Абасова К.Р. – Тиджани С.О. (13.2.2017);</t>
   </si>
   <si>
+    <t>Тищенко В.М. (17.11.1970). з 25.01.21</t>
+  </si>
+  <si>
     <t xml:space="preserve">Сокоренко В.В. – Сокоренко В.В. (16.12.2020); </t>
   </si>
   <si>
     <t xml:space="preserve">Мироненко М.С. –Мироненко А.М. (02.06.2020). </t>
-  </si>
-  <si>
-    <r>
-      <t>Приходько Ю.А. – Приходько М.Ю. (10.11.2020);</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> до 06.01.21</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-  </si>
-  <si>
-    <t>к-ть</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -190,14 +104,6 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="204"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="204"/>
@@ -219,15 +125,8 @@
       <family val="1"/>
       <charset val="204"/>
     </font>
-    <font>
-      <sz val="7"/>
-      <color theme="1"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-      <charset val="204"/>
-    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -238,6 +137,11 @@
       <patternFill patternType="solid">
         <fgColor theme="0"/>
         <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFDDDDDD"/>
       </patternFill>
     </fill>
   </fills>
@@ -253,7 +157,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -267,10 +171,10 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -282,10 +186,13 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Звичайний" xfId="0" builtinId="0"/>
@@ -566,34 +473,34 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AQ10"/>
+  <dimension ref="A1:AX16"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="X6" sqref="X6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="5.140625" customWidth="1"/>
-    <col min="2" max="2" width="34.28515625" customWidth="1"/>
-    <col min="3" max="3" width="5.28515625" customWidth="1"/>
-    <col min="4" max="4" width="48.7109375" customWidth="1"/>
-    <col min="5" max="5" width="6" customWidth="1"/>
-    <col min="6" max="6" width="55" customWidth="1"/>
-    <col min="9" max="41" width="3.7109375" customWidth="1"/>
-    <col min="42" max="50" width="5.7109375" customWidth="1"/>
+    <col min="1" max="1" width="5.140625" style="11" customWidth="1"/>
+    <col min="2" max="2" width="34.28515625" style="11" customWidth="1"/>
+    <col min="3" max="3" width="5.28515625" style="11" customWidth="1"/>
+    <col min="4" max="4" width="48.7109375" style="11" customWidth="1"/>
+    <col min="5" max="5" width="6" style="11" customWidth="1"/>
+    <col min="6" max="6" width="55" style="11" customWidth="1"/>
+    <col min="9" max="41" width="3.7109375" style="11" customWidth="1"/>
+    <col min="42" max="50" width="5.7109375" style="11" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:43" ht="83.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="10" t="s">
+      <c r="A1" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="10"/>
-      <c r="C1" s="10"/>
-      <c r="D1" s="10"/>
-      <c r="E1" s="10"/>
-      <c r="F1" s="10"/>
-      <c r="G1" s="10"/>
+      <c r="B1" s="14"/>
+      <c r="C1" s="14"/>
+      <c r="D1" s="14"/>
+      <c r="E1" s="14"/>
+      <c r="F1" s="14"/>
+      <c r="G1" s="14"/>
       <c r="H1" s="5"/>
       <c r="I1" s="5"/>
       <c r="J1" s="5"/>
@@ -604,58 +511,58 @@
     </row>
     <row r="2" spans="1:43" ht="107.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="9" t="s">
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="B2" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="9" t="s">
-        <v>20</v>
-      </c>
       <c r="D2" s="4" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E2" s="9" t="s">
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:43" ht="30" x14ac:dyDescent="0.25">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:43" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C3" s="7">
         <v>1</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="E3" s="7">
         <v>1</v>
       </c>
       <c r="F3" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="AQ3" s="11"/>
+        <v>7</v>
+      </c>
+      <c r="AQ3" s="10"/>
     </row>
     <row r="4" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C4" s="7"/>
       <c r="E4" s="7">
         <v>2</v>
       </c>
       <c r="F4" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="5" spans="1:43" x14ac:dyDescent="0.25">
@@ -663,29 +570,29 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="C5" s="7"/>
       <c r="E5" s="7">
         <v>3</v>
       </c>
       <c r="F5" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="6" spans="1:43" ht="15.75" x14ac:dyDescent="0.25">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="6" spans="1:43" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="C6" s="7"/>
       <c r="E6" s="7">
         <v>4</v>
       </c>
       <c r="F6" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="7" spans="1:43" x14ac:dyDescent="0.25">
@@ -693,14 +600,14 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="C7" s="7"/>
       <c r="E7" s="7">
         <v>5</v>
       </c>
       <c r="F7" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
     </row>
     <row r="8" spans="1:43" x14ac:dyDescent="0.25">
@@ -708,29 +615,29 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="C8" s="7"/>
       <c r="E8" s="7">
         <v>6</v>
       </c>
       <c r="F8" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="9" spans="1:43" ht="30" x14ac:dyDescent="0.25">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="9" spans="1:43" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="C9" s="7"/>
       <c r="E9" s="7">
         <v>7</v>
       </c>
       <c r="F9" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="10" spans="1:43" x14ac:dyDescent="0.25">
@@ -738,14 +645,20 @@
         <v>8</v>
       </c>
       <c r="F10" t="s">
-        <v>18</v>
-      </c>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="14" spans="1:43" x14ac:dyDescent="0.25">
+      <c r="B14" s="12"/>
+    </row>
+    <row r="16" spans="1:43" x14ac:dyDescent="0.25">
+      <c r="B16" s="12"/>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:G1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageSetup orientation="portrait"/>
 </worksheet>
 </file>